--- a/Assets/Tables/element.xlsx
+++ b/Assets/Tables/element.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\Alfa\Assets\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\Doom\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BB2ECC-1872-4379-805A-0F78F5B44759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC37BAF-4375-4797-93C4-2D7D26852273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31080" yWindow="2085" windowWidth="24060" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="element" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -56,6 +69,38 @@
   </si>
   <si>
     <t>气</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>opposite</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#enum elementType: int{水=1, 火=2,土=3,气=4}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>elementType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>相克</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>气</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>土</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -75,6 +120,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -82,6 +128,7 @@
       <sz val="11"/>
       <color theme="5"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -89,6 +136,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -157,7 +205,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -180,7 +228,21 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -457,72 +519,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="2" max="2" width="16" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="C4" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="C5" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="C6" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="C7" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B8" s="8" t="s">
         <v>9</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Tables/element.xlsx
+++ b/Assets/Tables/element.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\Doom\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC37BAF-4375-4797-93C4-2D7D26852273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB970EB6-AC99-4DBD-B97A-0640C5E5A54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31080" yWindow="2085" windowWidth="24060" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31200" yWindow="4950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="element" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -68,18 +68,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>气</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>opposite</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>#enum elementType: int{水=1, 火=2,土=3,气=4}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>elementType</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -88,19 +80,23 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>火</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>水</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>气</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>土</t>
+    <t>reinforce</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>相生</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#enum elementType: int{金=1, 火=2,水=3,木=4,土=5}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>木</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -519,25 +515,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="2" max="3" width="16" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,10 +542,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -556,10 +556,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -569,19 +572,25 @@
       <c r="C4" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -589,29 +598,52 @@
         <v>7</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>8</v>
+      <c r="B7" s="12" t="s">
+        <v>6</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>9</v>
+      <c r="B8" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
